--- a/管理・設計ドキュメント/02_基本設計/12x.画面設計/120.画面一覧.xlsx
+++ b/管理・設計ドキュメント/02_基本設計/12x.画面設計/120.画面一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\03.夢の宅配便\02_基本設計\12x.画面設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\夢の宅配便\02_基本設計\12x.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DDA00A-257A-4CF2-BADF-AFA89D7F799F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6E6744-6DC0-460C-84D5-27F52396DD7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31035" yWindow="285" windowWidth="24375" windowHeight="14925" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="630" windowWidth="24375" windowHeight="14925" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="64" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="298">
   <si>
     <t>改訂日</t>
   </si>
@@ -2316,9 +2316,409 @@
 product_delivery_status_lists</t>
   </si>
   <si>
+    <t>会員の仮登録が終わったことを通知する画面。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計のみ</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装のみ
+※設計書未作成</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ミサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未着</t>
+    <rPh sb="0" eb="2">
+      <t>ミチャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当ＷＥＢサイトの会員・非会員用ＴＯＰページ。
+キャンペーン商品や人気商品を紹介する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品情報マスタ（product_masters）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当ＷＥＢサイトの会員・非会員用の商品紹介ページ。
+指定されたタグ（カテゴリ）に応じた商品を表示する。</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ヒカイインヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当ＷＥＢサイトの会員・非会員用の商品紹介ページ。
+指定された商品の詳細な情報を表示する。
+また、購入を希望する場合、カートへの登録を行う。</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ヒカイインヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>キボウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品カートリスト
+（product_cart_lists）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品カートリスト（product_cart_lists）に登録されている商品を一覧にして表示する。
+会員は一覧より「配送手続きへ」または「キャンセル」を行う。
+キャンセルした場合、商品カートリストより削除する。</t>
+    <rPh sb="87" eb="89">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品の配送先を指定する。
+登録先住所とするか個別に入力を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所マスタ（address_masters）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品配送状況リスト
+（product_delivery_status_lists）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品の配達日時を指定する。
+※同じ時間帯に複数の商品の配達は不可とする。（フェーズ２以降で実装予定）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員支払方法マスタ
+（member_payment_masters）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員情報マスタ（members）
+商品情報マスタ（product_masters）
+商品カートリスト（product_cart_lists）
+商品在庫リスト（product_stock_lists）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入手続きの最終確認を行い、誤りがなければ決済とし各種テーブルへ登録する。</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品の決済が終わったこと、取引の内容、お取引番号を通知する。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各画面共通のログインしている状態のヘッダー部分。</t>
+    <rPh sb="0" eb="3">
+      <t>カクガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（共通）ヘッダー部（非ログイン）</t>
+    <rPh sb="1" eb="3">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各画面共通のログインしていない状態のヘッダー部分。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オペレーター（操作員）向けのページ。
+会員情報管理、商品管理、取引管理、お知らせ管理、入出金管理へリンクするメインメニュー画面。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>様々な条件による商品の検索を行う。
+検索結果より、以下の作業を行う。
+・詳細な商品情報の参照へのリンク
+・商品の変更・削除へのリンク
+・仮登録、仮変更中のレコードの承認作業</t>
+    <rPh sb="0" eb="2">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細な商品情報の参照を行う。
+※商品の変更・削除へのリンクあり</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品の仮登録が終わったことを通知する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品情報の入力後の確認を行う。
+エラーがなければ商品情報マスタ（product_masters）へ仮登録を行う。</t>
+    <rPh sb="49" eb="50">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員情報マスタ（members）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品情報マスタ（product_masters）</t>
+  </si>
+  <si>
+    <t>会員支払方法マスタ（member_payment_masters）</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品カートリスト（product_cart_lists）
+商品取引リスト（product_transaction_lists）
+商品在庫リスト（product_stock_lists）
+商品配送状況リスト
+（product_delivery_status_lists）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル：注目商品マスタをタグマスタへ修正</t>
+    <rPh sb="5" eb="7">
+      <t>チュウモク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">入会希望者が入力した内容を確認する画面。
-確認後に会員情報マスタ（members）へ仮登録を行う。
+      <t xml:space="preserve">商品情報マスタ（product_masters）
 </t>
     </r>
     <r>
@@ -2329,7 +2729,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>【フェーズ２以降で以下の機能を実装予定】</t>
+      <t>タグ</t>
     </r>
     <r>
       <rPr>
@@ -2338,7 +2738,33 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">
+      <t>マスタ（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>tag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>_masters）
+商品在庫リスト（product_stock_lists）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">商品情報マスタ（product_masters）
 </t>
     </r>
     <r>
@@ -2349,84 +2775,23 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>二要素認証用のメールを送信。
-送信したアドレスにアクセスがあるまでは仮登録扱いとする。</t>
+      <t>タグマスタ（tag_masters）</t>
     </r>
-    <rPh sb="56" eb="58">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>ニ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会員の仮登録が終わったことを通知する画面。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フェーズ１
-作業状況</t>
-    <rPh sb="6" eb="8">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設計のみ</t>
-    <rPh sb="0" eb="2">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実装のみ
-※設計書未作成</t>
-    <rPh sb="0" eb="2">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ミサクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">会員のログイン画面。
-メールアドレスとパスワードの入力でログイン可能。
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+商品在庫リスト（product_stock_lists）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">商品情報マスタ（product_masters）
 </t>
     </r>
     <r>
@@ -2437,195 +2802,13 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>【フェーズ２以降で以下の機能を実装予定】
-仮登録中の会員の場合、再度新規会員登録のメールを送信するか選ばせる。（本登録となるまでログインさせない）</t>
+      <t>タグマスタ（tag_masters）</t>
     </r>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未着</t>
-    <rPh sb="0" eb="2">
-      <t>ミチャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>当ＷＥＢサイトの会員・非会員用ＴＯＰページ。
-キャンペーン商品や人気商品を紹介する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品情報マスタ（product_masters）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品情報マスタ（product_masters）
-注目商品マスタ（featured_product_masters）
-商品在庫リスト（product_stock_lists）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品情報マスタ（product_masters）
-商品在庫リスト（product_stock_lists）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>当ＷＥＢサイトの会員・非会員用の商品紹介ページ。
-指定されたタグ（カテゴリ）に応じた商品を表示する。</t>
-    <rPh sb="0" eb="1">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>ヒカイインヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>当ＷＥＢサイトの会員・非会員用の商品紹介ページ。
-指定された商品の詳細な情報を表示する。
-また、購入を希望する場合、カートへの登録を行う。</t>
-    <rPh sb="0" eb="1">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>ヒカイインヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>キボウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品カートリスト
-（product_cart_lists）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品情報マスタ（product_masters）
-商品カートリスト（product_cart_lists）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品カートリスト（product_cart_lists）に登録されている商品を一覧にして表示する。
-会員は一覧より「配送手続きへ」または「キャンセル」を行う。
-キャンセルした場合、商品カートリストより削除する。</t>
-    <rPh sb="87" eb="89">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品の配送先を指定する。
-登録先住所とするか個別に入力を行う。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住所マスタ（address_masters）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品配送状況リスト
-（product_delivery_status_lists）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品の配達日時を指定する。
-※同じ時間帯に複数の商品の配達は不可とする。（フェーズ２以降で実装予定）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会員支払方法マスタ
-（member_payment_masters）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">購入予定の商品毎に配送日時を登録・変更する。
-ただし、同一日時に複数の商品の登録は不可。
+      <t xml:space="preserve">商品情報マスタ（product_masters）
 </t>
     </r>
     <r>
@@ -2636,8 +2819,24 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>※現在カード情報のセキュリティを考慮していない。あくまでフェーズ１における暫定版とする。</t>
+      <t>商品在庫リスト（product_stock_lists）</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+商品カートリスト（product_cart_lists）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入予定の商品毎に配送日時を登録・変更する。
+ただし、同一日時に複数の商品の登録は不可。
+※現在カード情報のセキュリティを考慮していない。あくまでフェーズ１における暫定版とする。</t>
     <rPh sb="0" eb="2">
       <t>コウニュウ</t>
     </rPh>
@@ -2683,223 +2882,118 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>会員情報マスタ（members）
-商品情報マスタ（product_masters）
-商品カートリスト（product_cart_lists）
-商品在庫リスト（product_stock_lists）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>購入手続きの最終確認を行い、誤りがなければ決済とし各種テーブルへ登録する。</t>
-    <rPh sb="0" eb="2">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テツヅ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サイシュウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>アヤマ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ケッサイ</t>
+    <t>フェーズ２までの
+作業状況</t>
+    <rPh sb="9" eb="11">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入会希望者が入力した内容を確認する画面。
+確認後に会員情報マスタ（members）へ仮登録を行う。
+【フェーズ２以降で以下の機能を実装予定】
+二要素認証用のメールを送信。
+送信したアドレスにアクセスがあるまでは仮登録扱いとする。</t>
+    <rPh sb="56" eb="58">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員のログイン画面。
+メールアドレスとパスワードの入力でログイン可能。
+【フェーズ２以降で以下の機能を実装予定】
+仮登録中の会員の場合、再度新規会員登録のメールを送信するか選ばせる。（本登録となるまでログインさせない）</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
     </rPh>
     <rPh sb="25" eb="27">
-      <t>カクシュ</t>
+      <t>ニュウリョク</t>
     </rPh>
     <rPh sb="32" eb="34">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="93" eb="95">
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品の決済が終わったこと、取引の内容、お取引番号を通知する。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケッサイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>トリヒキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トリヒキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ツウチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各画面共通のログインしている状態のヘッダー部分。</t>
-    <rPh sb="0" eb="3">
-      <t>カクガメン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ブブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（共通）ヘッダー部（非ログイン）</t>
-    <rPh sb="1" eb="3">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各画面共通のログインしていない状態のヘッダー部分。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オペレーター（操作員）向けのページ。
-会員情報管理、商品管理、取引管理、お知らせ管理、入出金管理へリンクするメインメニュー画面。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>様々な条件による商品の検索を行う。
-検索結果より、以下の作業を行う。
-・詳細な商品情報の参照へのリンク
-・商品の変更・削除へのリンク
-・仮登録、仮変更中のレコードの承認作業</t>
-    <rPh sb="0" eb="2">
-      <t>サマザマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細な商品情報の参照を行う。
-※商品の変更・削除へのリンクあり</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品の仮登録が終わったことを通知する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品情報の入力後の確認を行う。
-エラーがなければ商品情報マスタ（product_masters）へ仮登録を行う。</t>
-    <rPh sb="49" eb="50">
-      <t>カリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会員情報マスタ（members）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品情報マスタ（product_masters）</t>
-  </si>
-  <si>
-    <t>会員支払方法マスタ（member_payment_masters）</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シハライ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品カートリスト（product_cart_lists）
-商品取引リスト（product_transaction_lists）
-商品在庫リスト（product_stock_lists）
-商品配送状況リスト
-（product_delivery_status_lists）</t>
+    <r>
+      <t xml:space="preserve">商品情報マスタ（product_masters）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>商品在庫リスト（product_stock_lists）
+オペレーター情報マスタ（operators）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">商品情報マスタ（product_masters）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>商品在庫リスト（product_stock_lists）</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3574,7 +3668,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5:B5"/>
-      <selection pane="bottomLeft" sqref="A1:D1"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
@@ -3628,9 +3722,15 @@
         <f t="shared" ref="A5:A51" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="3">
+        <v>43929</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="14">
@@ -4062,9 +4162,9 @@
   <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5:B5"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
@@ -4114,7 +4214,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
@@ -4166,10 +4266,10 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>246</v>
@@ -4189,7 +4289,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>246</v>
@@ -4214,7 +4314,7 @@
         <v>169</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="31.5">
@@ -4236,7 +4336,7 @@
         <v>255</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4256,7 +4356,7 @@
         <v>36</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4278,7 +4378,7 @@
         <v>197</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4300,7 +4400,7 @@
         <v>199</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4320,7 +4420,7 @@
         <v>198</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4340,7 +4440,7 @@
       <c r="E14" s="30"/>
       <c r="F14" s="31"/>
       <c r="G14" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21">
@@ -4360,7 +4460,7 @@
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4380,7 +4480,7 @@
         <v>36</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="52.5">
@@ -4399,10 +4499,10 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="10" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="21">
@@ -4422,7 +4522,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4442,7 +4542,7 @@
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="31.5">
@@ -4462,7 +4562,7 @@
         <v>35</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="21">
@@ -4484,7 +4584,7 @@
         <v>88</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4504,10 +4604,10 @@
         <v>89</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="42">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="31.5">
       <c r="A23" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4519,17 +4619,17 @@
         <v>185</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="21">
+    <row r="24" spans="1:7" ht="31.5">
       <c r="A24" s="36">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4541,11 +4641,11 @@
         <v>186</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>246</v>
@@ -4563,13 +4663,13 @@
         <v>187</v>
       </c>
       <c r="D25" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E25" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>270</v>
-      </c>
       <c r="F25" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>246</v>
@@ -4587,13 +4687,13 @@
         <v>72</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>246</v>
@@ -4611,11 +4711,11 @@
         <v>77</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>246</v>
@@ -4633,11 +4733,11 @@
         <v>78</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>246</v>
@@ -4655,11 +4755,11 @@
         <v>73</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="10" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>246</v>
@@ -4677,13 +4777,13 @@
         <v>74</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>246</v>
@@ -4703,7 +4803,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="10" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>246</v>
@@ -4728,7 +4828,7 @@
         <v>79</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4748,7 +4848,7 @@
       <c r="E33" s="30"/>
       <c r="F33" s="31"/>
       <c r="G33" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4766,7 +4866,7 @@
       <c r="E34" s="30"/>
       <c r="F34" s="31"/>
       <c r="G34" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4784,7 +4884,7 @@
       <c r="E35" s="30"/>
       <c r="F35" s="31"/>
       <c r="G35" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4802,7 +4902,7 @@
       <c r="E36" s="30"/>
       <c r="F36" s="31"/>
       <c r="G36" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4820,7 +4920,7 @@
       <c r="E37" s="30"/>
       <c r="F37" s="31"/>
       <c r="G37" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4835,14 +4935,14 @@
         <v>245</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="31" t="s">
         <v>80</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="21">
@@ -4866,7 +4966,7 @@
         <v>167</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -4881,11 +4981,11 @@
         <v>157</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="39" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>246</v>
@@ -4900,14 +5000,14 @@
         <v>155</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="39" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>246</v>
@@ -4930,7 +5030,7 @@
         <v>160</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -4974,7 +5074,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="10"/>
       <c r="G45" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="31.5">
@@ -4991,7 +5091,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="10" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>246</v>
@@ -5014,7 +5114,7 @@
         <v>42</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5032,7 +5132,7 @@
       <c r="E48" s="30"/>
       <c r="F48" s="31"/>
       <c r="G48" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -5050,7 +5150,7 @@
       <c r="E49" s="30"/>
       <c r="F49" s="31"/>
       <c r="G49" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>41</v>
@@ -5071,7 +5171,7 @@
       <c r="E50" s="30"/>
       <c r="F50" s="31"/>
       <c r="G50" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -5089,7 +5189,7 @@
       <c r="E51" s="30"/>
       <c r="F51" s="31"/>
       <c r="G51" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -5109,7 +5209,7 @@
         <v>189</v>
       </c>
       <c r="G52" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>41</v>
@@ -5130,7 +5230,7 @@
       <c r="E53" s="30"/>
       <c r="F53" s="40"/>
       <c r="G53" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -5148,7 +5248,7 @@
       <c r="E54" s="30"/>
       <c r="F54" s="40"/>
       <c r="G54" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -5166,7 +5266,7 @@
       <c r="E55" s="30"/>
       <c r="F55" s="31"/>
       <c r="G55" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>41</v>
@@ -5187,7 +5287,7 @@
       <c r="E56" s="30"/>
       <c r="F56" s="31"/>
       <c r="G56" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -5205,7 +5305,7 @@
       <c r="E57" s="30"/>
       <c r="F57" s="31"/>
       <c r="G57" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="52.5">
@@ -5220,17 +5320,17 @@
         <v>45</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="10" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G58" s="26" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="21">
+    <row r="59" spans="1:8" ht="31.5">
       <c r="A59" s="7">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -5242,11 +5342,11 @@
         <v>46</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="10" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G59" s="26" t="s">
         <v>246</v>
@@ -5264,7 +5364,7 @@
         <v>163</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="10" t="s">
@@ -5289,13 +5389,13 @@
         <v>60</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G61" s="26" t="s">
         <v>246</v>
@@ -5315,7 +5415,7 @@
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="10" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G62" s="26" t="s">
         <v>246</v>
@@ -5336,12 +5436,12 @@
         <v>164</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E63" s="30"/>
       <c r="F63" s="31"/>
       <c r="G63" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -5356,14 +5456,14 @@
         <v>63</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F64" s="31"/>
       <c r="G64" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -5378,12 +5478,12 @@
         <v>64</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E65" s="30"/>
       <c r="F65" s="31"/>
       <c r="G65" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -5398,16 +5498,16 @@
         <v>65</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F66" s="31" t="s">
         <v>183</v>
       </c>
       <c r="G66" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -5422,14 +5522,14 @@
         <v>66</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E67" s="30"/>
       <c r="F67" s="31" t="s">
         <v>184</v>
       </c>
       <c r="G67" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -5449,7 +5549,7 @@
         <v>57</v>
       </c>
       <c r="G68" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -5467,7 +5567,7 @@
       <c r="E69" s="30"/>
       <c r="F69" s="31"/>
       <c r="G69" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -5485,7 +5585,7 @@
       <c r="E70" s="30"/>
       <c r="F70" s="31"/>
       <c r="G70" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -5503,7 +5603,7 @@
       <c r="E71" s="30"/>
       <c r="F71" s="31"/>
       <c r="G71" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -5521,7 +5621,7 @@
       <c r="E72" s="30"/>
       <c r="F72" s="31"/>
       <c r="G72" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -5539,7 +5639,7 @@
       <c r="E73" s="30"/>
       <c r="F73" s="31"/>
       <c r="G73" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -5557,7 +5657,7 @@
       <c r="E74" s="30"/>
       <c r="F74" s="31"/>
       <c r="G74" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -5575,7 +5675,7 @@
       <c r="E75" s="30"/>
       <c r="F75" s="31"/>
       <c r="G75" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -5593,7 +5693,7 @@
       <c r="E76" s="30"/>
       <c r="F76" s="31"/>
       <c r="G76" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -5611,7 +5711,7 @@
       <c r="E77" s="30"/>
       <c r="F77" s="31"/>
       <c r="G77" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -5629,7 +5729,7 @@
       <c r="E78" s="30"/>
       <c r="F78" s="31"/>
       <c r="G78" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -5649,7 +5749,7 @@
       <c r="E79" s="30"/>
       <c r="F79" s="31"/>
       <c r="G79" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -5669,7 +5769,7 @@
       <c r="E80" s="30"/>
       <c r="F80" s="31"/>
       <c r="G80" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -5687,7 +5787,7 @@
       <c r="E81" s="30"/>
       <c r="F81" s="31"/>
       <c r="G81" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -5705,7 +5805,7 @@
       <c r="E82" s="30"/>
       <c r="F82" s="31"/>
       <c r="G82" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -5725,7 +5825,7 @@
         <v>54</v>
       </c>
       <c r="G83" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>56</v>
@@ -5746,7 +5846,7 @@
       <c r="E84" s="30"/>
       <c r="F84" s="31"/>
       <c r="G84" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -5764,7 +5864,7 @@
       <c r="E85" s="30"/>
       <c r="F85" s="31"/>
       <c r="G85" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -5782,7 +5882,7 @@
       <c r="E86" s="30"/>
       <c r="F86" s="31"/>
       <c r="G86" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -5800,7 +5900,7 @@
       <c r="E87" s="30"/>
       <c r="F87" s="31"/>
       <c r="G87" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5818,7 +5918,7 @@
       <c r="E88" s="30"/>
       <c r="F88" s="31"/>
       <c r="G88" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -5838,7 +5938,7 @@
         <v>138</v>
       </c>
       <c r="G89" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5856,7 +5956,7 @@
       <c r="E90" s="30"/>
       <c r="F90" s="31"/>
       <c r="G90" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5874,7 +5974,7 @@
       <c r="E91" s="30"/>
       <c r="F91" s="31"/>
       <c r="G91" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5892,7 +5992,7 @@
       <c r="E92" s="30"/>
       <c r="F92" s="31"/>
       <c r="G92" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5910,7 +6010,7 @@
       <c r="E93" s="30"/>
       <c r="F93" s="31"/>
       <c r="G93" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5928,7 +6028,7 @@
       <c r="E94" s="30"/>
       <c r="F94" s="31"/>
       <c r="G94" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5946,7 +6046,7 @@
       <c r="E95" s="30"/>
       <c r="F95" s="31"/>
       <c r="G95" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5964,7 +6064,7 @@
       <c r="E96" s="30"/>
       <c r="F96" s="31"/>
       <c r="G96" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -5982,7 +6082,7 @@
       <c r="E97" s="30"/>
       <c r="F97" s="31"/>
       <c r="G97" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -6000,7 +6100,7 @@
       <c r="E98" s="30"/>
       <c r="F98" s="31"/>
       <c r="G98" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -6018,7 +6118,7 @@
       <c r="E99" s="30"/>
       <c r="F99" s="31"/>
       <c r="G99" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -6036,7 +6136,7 @@
       <c r="E100" s="30"/>
       <c r="F100" s="31"/>
       <c r="G100" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -6054,7 +6154,7 @@
       <c r="E101" s="30"/>
       <c r="F101" s="31"/>
       <c r="G101" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -6072,7 +6172,7 @@
       <c r="E102" s="30"/>
       <c r="F102" s="31"/>
       <c r="G102" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -6090,7 +6190,7 @@
       <c r="E103" s="30"/>
       <c r="F103" s="31"/>
       <c r="G103" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -6108,7 +6208,7 @@
       <c r="E104" s="30"/>
       <c r="F104" s="31"/>
       <c r="G104" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -6126,7 +6226,7 @@
       <c r="E105" s="30"/>
       <c r="F105" s="31"/>
       <c r="G105" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -6144,7 +6244,7 @@
       <c r="E106" s="30"/>
       <c r="F106" s="31"/>
       <c r="G106" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="94.5">
@@ -6164,7 +6264,7 @@
         <v>96</v>
       </c>
       <c r="G107" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -6184,7 +6284,7 @@
         <v>156</v>
       </c>
       <c r="G108" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109" spans="1:7">
